--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>859246.0927741323</v>
+        <v>788552.406102519</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409203.1627948469</v>
+        <v>409203.1627948468</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.4759005688519</v>
+        <v>150.397767816226</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>41.3465873513397</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>168.1572104236697</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>168.1572104236695</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>222.2258812931397</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>264.3952212715415</v>
+        <v>241.5891775064833</v>
       </c>
     </row>
     <row r="9">
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>20.7261743858757</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>181.6612946870253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>353.3606744918861</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>353.3606744918858</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>353.3606744918858</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>353.3606744918858</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.0706395837846</v>
+        <v>311.2400820924529</v>
       </c>
       <c r="Y11" t="n">
-        <v>353.3606744918861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>85.61813881852798</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>85.61813881852706</v>
       </c>
       <c r="U12" t="n">
         <v>224.6475240054629</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>160.5403959386579</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>25.12574606070011</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.1419954406586</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>12.87178637307712</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1837051024965</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H14" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>152.5223218189376</v>
+        <v>123.3327901109386</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I15" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>49.28281404613733</v>
       </c>
       <c r="S15" t="n">
-        <v>155.3758183558548</v>
+        <v>155.3758183558542</v>
       </c>
       <c r="T15" t="n">
         <v>195.4343982340639</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.41377105177699</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>145.8195582697328</v>
       </c>
       <c r="S16" t="n">
-        <v>34.411789618284</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>15.70634780012644</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>81.29881609603159</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>34.22559878943197</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I18" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>195.4343982340639</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6090573663171</v>
+        <v>224.6090573663165</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.642083404004222</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>169.7318546237109</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>121.4567164111648</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
@@ -2092,16 +2092,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H20" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U20" t="n">
-        <v>188.761756442657</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835495</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>135.2917907515943</v>
@@ -2241,28 +2241,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>17.00031583799401</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.48578169199548</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>185.834156240457</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>270.5969572139688</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>148.069771918449</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I23" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -2417,7 +2417,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I24" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.41382900207807</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>286.0188232547115</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>128.4665504535168</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H26" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S26" t="n">
-        <v>174.714014505568</v>
+        <v>21.9130390696163</v>
       </c>
       <c r="T26" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.1424702256657</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I27" t="n">
-        <v>61.32090000246101</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.17303668681689</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S28" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>230.0382375678739</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.6382598948835</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>20.99679936512449</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -2809,10 +2809,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H29" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H30" t="n">
-        <v>103.3985434322539</v>
+        <v>103.3985434322537</v>
       </c>
       <c r="I30" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>95.31032463304057</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V31" t="n">
-        <v>155.1887879554427</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>232.9481714230534</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2608509477658345</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U32" t="n">
         <v>251.3684020854885</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
@@ -3128,7 +3128,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I33" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.28281404613688</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S33" t="n">
         <v>155.3758183558542</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S34" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>51.92440338099598</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>23.83854272127419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
@@ -3277,16 +3277,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>71.21359225032978</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.97983816907738</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>256.4089323274372</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.2917907515943</v>
+        <v>135.291790751595</v>
       </c>
       <c r="H36" t="n">
         <v>103.3985434322537</v>
       </c>
       <c r="I36" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>95.31032463304045</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>45.19882118696059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
@@ -3511,16 +3511,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>60.83406583687496</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H38" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>136.0467274674104</v>
       </c>
     </row>
     <row r="39">
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>85.3489572000335</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.6904612099073</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>186.6247116918505</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S41" t="n">
         <v>174.714014505568</v>
@@ -3805,10 +3805,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>355.334076187739</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H42" t="n">
-        <v>103.3985434322537</v>
+        <v>103.3985434322543</v>
       </c>
       <c r="I42" t="n">
         <v>61.32090000246036</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>95.31032463304045</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>170.995913838762</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>12.30965072055168</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4877467656314</v>
+        <v>301.7245521825684</v>
       </c>
       <c r="H44" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I44" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>55.97983816907735</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>31.16561987260436</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.41377105177699</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>155.1887879554427</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
         <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003605</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q2" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>953.8515700725949</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>745.9071743922523</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T2" t="n">
-        <v>520.689884294858</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U2" t="n">
-        <v>520.689884294858</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V2" t="n">
-        <v>520.689884294858</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="W2" t="n">
-        <v>520.689884294858</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="X2" t="n">
-        <v>520.689884294858</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.6355334447543</v>
+        <v>174.5255782749932</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236.4600493133289</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="C3" t="n">
-        <v>63.70693423514609</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="D3" t="n">
-        <v>63.70693423514609</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="E3" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="F3" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="G3" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="H3" t="n">
         <v>21.9427045873282</v>
@@ -4409,25 +4409,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>38.0960674107985</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>286.1736718527165</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M3" t="n">
-        <v>557.714641120903</v>
+        <v>432.7256329136656</v>
       </c>
       <c r="N3" t="n">
-        <v>829.2556103890895</v>
+        <v>704.266602181852</v>
       </c>
       <c r="O3" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P3" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4436,25 +4436,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>830.8154377838489</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T3" t="n">
-        <v>630.4290419169108</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U3" t="n">
-        <v>403.5026004348894</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V3" t="n">
-        <v>403.5026004348894</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W3" t="n">
-        <v>403.5026004348894</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X3" t="n">
-        <v>403.5026004348894</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y3" t="n">
-        <v>403.5026004348894</v>
+        <v>81.2646594407272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>36.86635076695785</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
         <v>108.7246574309869</v>
@@ -4533,7 +4533,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4567,52 +4567,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J5" t="n">
-        <v>21.94270458732831</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K5" t="n">
-        <v>143.2410926494322</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L5" t="n">
-        <v>345.6915471007957</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
-        <v>586.168979562391</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003605</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q5" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>953.8515700725949</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>745.9071743922523</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>576.0514062875354</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U5" t="n">
-        <v>576.0514062875354</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="V5" t="n">
-        <v>576.0514062875354</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W5" t="n">
-        <v>576.0514062875354</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X5" t="n">
-        <v>576.0514062875354</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y5" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>499.8936553037125</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="C6" t="n">
-        <v>327.1405402255297</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="D6" t="n">
-        <v>179.5522335844735</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="F6" t="n">
         <v>21.9427045873282</v>
@@ -4646,22 +4646,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>168.5779744919641</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
-        <v>416.6555789338821</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M6" t="n">
-        <v>688.1965482020686</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N6" t="n">
-        <v>817.3865915151152</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O6" t="n">
-        <v>817.3865915151152</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P6" t="n">
         <v>1015.957061350112</v>
@@ -4670,28 +4670,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U6" t="n">
-        <v>1097.13522936641</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V6" t="n">
-        <v>1097.13522936641</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W6" t="n">
-        <v>872.6646422016225</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6646422016225</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y6" t="n">
-        <v>666.936206425273</v>
+        <v>81.2646594407272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6025577647144</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J7" t="n">
-        <v>36.86635076695785</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K7" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L7" t="n">
-        <v>59.0292235140474</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M7" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N7" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O7" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P7" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q7" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R7" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C8" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D8" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E8" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F8" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G8" t="n">
         <v>21.9427045873282</v>
@@ -4807,22 +4807,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L8" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M8" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003605</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
@@ -4837,19 +4837,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>843.1172863597997</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V8" t="n">
-        <v>843.1172863597997</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W8" t="n">
-        <v>566.062935509696</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X8" t="n">
-        <v>289.0085846595924</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>630.4290419169108</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C9" t="n">
-        <v>630.4290419169108</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D9" t="n">
-        <v>482.8407352758547</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E9" t="n">
-        <v>325.2312062787094</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2754162953262</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
-        <v>42.87823427003093</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H9" t="n">
         <v>21.9427045873282</v>
@@ -4886,49 +4886,49 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>409.2622680873972</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>476.5364731046049</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N9" t="n">
-        <v>748.0774423727914</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O9" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838489</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>630.4290419169108</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>630.4290419169108</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V9" t="n">
-        <v>630.4290419169108</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W9" t="n">
-        <v>630.4290419169108</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X9" t="n">
-        <v>630.4290419169108</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y9" t="n">
-        <v>630.4290419169108</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="10">
@@ -4968,7 +4968,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -4989,10 +4989,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
         <v>21.9427045873282</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.26885395935088</v>
+        <v>1099.058776662035</v>
       </c>
       <c r="C11" t="n">
-        <v>28.26885395935088</v>
+        <v>742.128802427807</v>
       </c>
       <c r="D11" t="n">
-        <v>28.26885395935088</v>
+        <v>385.1988281935789</v>
       </c>
       <c r="E11" t="n">
-        <v>28.26885395935088</v>
+        <v>385.1988281935789</v>
       </c>
       <c r="F11" t="n">
-        <v>28.26885395935088</v>
+        <v>385.1988281935789</v>
       </c>
       <c r="G11" t="n">
-        <v>28.26885395935088</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="H11" t="n">
-        <v>28.26885395935088</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="I11" t="n">
-        <v>28.26885395935088</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="J11" t="n">
-        <v>50.65843562542946</v>
+        <v>50.65843562542935</v>
       </c>
       <c r="K11" t="n">
-        <v>206.4912073741734</v>
+        <v>206.4912073741732</v>
       </c>
       <c r="L11" t="n">
-        <v>451.7846185279099</v>
+        <v>451.7846185279096</v>
       </c>
       <c r="M11" t="n">
-        <v>739.9330952748879</v>
+        <v>739.9330952748876</v>
       </c>
       <c r="N11" t="n">
         <v>1017.22694063332</v>
       </c>
       <c r="O11" t="n">
-        <v>1232.939304314795</v>
+        <v>1232.939304314794</v>
       </c>
       <c r="P11" t="n">
-        <v>1380.106022867013</v>
+        <v>1380.106022867012</v>
       </c>
       <c r="Q11" t="n">
-        <v>1413.442697967544</v>
+        <v>1413.442697967543</v>
       </c>
       <c r="R11" t="n">
-        <v>1413.442697967544</v>
+        <v>1413.442697967543</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.442697967544</v>
+        <v>1413.442697967543</v>
       </c>
       <c r="T11" t="n">
-        <v>1413.442697967544</v>
+        <v>1413.442697967543</v>
       </c>
       <c r="U11" t="n">
-        <v>1413.442697967544</v>
+        <v>1413.442697967543</v>
       </c>
       <c r="V11" t="n">
-        <v>1413.442697967544</v>
+        <v>1413.442697967543</v>
       </c>
       <c r="W11" t="n">
-        <v>1059.371872714459</v>
+        <v>1413.442697967543</v>
       </c>
       <c r="X11" t="n">
-        <v>742.1288024278076</v>
+        <v>1099.058776662035</v>
       </c>
       <c r="Y11" t="n">
-        <v>385.1988281935793</v>
+        <v>1099.058776662035</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>287.5049375410973</v>
+        <v>201.0219690375337</v>
       </c>
       <c r="C12" t="n">
-        <v>114.7518224629145</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="D12" t="n">
-        <v>114.7518224629145</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="E12" t="n">
-        <v>114.7518224629145</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="F12" t="n">
-        <v>114.7518224629145</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="G12" t="n">
-        <v>114.7518224629145</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="H12" t="n">
-        <v>28.26885395935088</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="I12" t="n">
-        <v>28.26885395935088</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="J12" t="n">
-        <v>49.38598059755878</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="K12" t="n">
-        <v>212.0841267409827</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="L12" t="n">
-        <v>491.7014693923268</v>
+        <v>307.8861966106948</v>
       </c>
       <c r="M12" t="n">
-        <v>841.528537139294</v>
+        <v>657.7132643576617</v>
       </c>
       <c r="N12" t="n">
-        <v>884.6935827779167</v>
+        <v>884.6935827779157</v>
       </c>
       <c r="O12" t="n">
-        <v>1187.134078003025</v>
+        <v>1187.134078003024</v>
       </c>
       <c r="P12" t="n">
-        <v>1413.442697967544</v>
+        <v>1413.442697967543</v>
       </c>
       <c r="Q12" t="n">
-        <v>1413.442697967544</v>
+        <v>1413.442697967543</v>
       </c>
       <c r="R12" t="n">
-        <v>1413.442697967544</v>
+        <v>1413.442697967543</v>
       </c>
       <c r="S12" t="n">
-        <v>1413.442697967544</v>
+        <v>1413.442697967543</v>
       </c>
       <c r="T12" t="n">
-        <v>1413.442697967544</v>
+        <v>1326.95972946398</v>
       </c>
       <c r="U12" t="n">
-        <v>1186.526007052935</v>
+        <v>1100.043038549371</v>
       </c>
       <c r="V12" t="n">
-        <v>952.2747635785361</v>
+        <v>865.7917950749724</v>
       </c>
       <c r="W12" t="n">
-        <v>699.7602719118694</v>
+        <v>613.2773034083057</v>
       </c>
       <c r="X12" t="n">
-        <v>493.2333733174469</v>
+        <v>406.7504048138832</v>
       </c>
       <c r="Y12" t="n">
-        <v>287.5049375410973</v>
+        <v>201.0219690375337</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>296.7619220805798</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="C13" t="n">
-        <v>296.7619220805798</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="D13" t="n">
-        <v>296.7619220805798</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7619220805798</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="F13" t="n">
-        <v>296.7619220805798</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="G13" t="n">
-        <v>296.7619220805798</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5999059809253</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="I13" t="n">
-        <v>109.2203645054707</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="J13" t="n">
-        <v>28.26885395935088</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="K13" t="n">
-        <v>28.26885395935088</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="L13" t="n">
-        <v>83.4608111974038</v>
+        <v>83.46081119740371</v>
       </c>
       <c r="M13" t="n">
-        <v>152.2458912438729</v>
+        <v>152.2458912438727</v>
       </c>
       <c r="N13" t="n">
-        <v>224.5366777238909</v>
+        <v>224.5366777238906</v>
       </c>
       <c r="O13" t="n">
-        <v>275.9723230856092</v>
+        <v>275.9723230856089</v>
       </c>
       <c r="P13" t="n">
-        <v>296.7619220805798</v>
+        <v>296.7619220805794</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.7619220805798</v>
+        <v>296.7619220805794</v>
       </c>
       <c r="R13" t="n">
-        <v>296.7619220805798</v>
+        <v>296.7619220805794</v>
       </c>
       <c r="S13" t="n">
-        <v>296.7619220805798</v>
+        <v>296.7619220805794</v>
       </c>
       <c r="T13" t="n">
-        <v>296.7619220805798</v>
+        <v>296.7619220805794</v>
       </c>
       <c r="U13" t="n">
-        <v>296.7619220805798</v>
+        <v>283.7601176633298</v>
       </c>
       <c r="V13" t="n">
-        <v>296.7619220805798</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="W13" t="n">
-        <v>296.7619220805798</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="X13" t="n">
-        <v>296.7619220805798</v>
+        <v>28.26885395935086</v>
       </c>
       <c r="Y13" t="n">
-        <v>296.7619220805798</v>
+        <v>28.26885395935086</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1290.738224109502</v>
+        <v>966.4660889533836</v>
       </c>
       <c r="C14" t="n">
-        <v>920.0462082721857</v>
+        <v>595.7740731160678</v>
       </c>
       <c r="D14" t="n">
-        <v>920.0462082721857</v>
+        <v>595.7740731160678</v>
       </c>
       <c r="E14" t="n">
-        <v>920.0462082721857</v>
+        <v>595.7740731160678</v>
       </c>
       <c r="F14" t="n">
-        <v>920.0462082721857</v>
+        <v>595.7740731160678</v>
       </c>
       <c r="G14" t="n">
-        <v>535.0121627141084</v>
+        <v>178.1096824437128</v>
       </c>
       <c r="H14" t="n">
-        <v>207.594057906338</v>
+        <v>178.1096824437128</v>
       </c>
       <c r="I14" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J14" t="n">
         <v>167.7421803733073</v>
@@ -5284,7 +5284,7 @@
         <v>461.1915665632928</v>
       </c>
       <c r="L14" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248481</v>
       </c>
       <c r="M14" t="n">
         <v>1355.324135626645</v>
@@ -5296,34 +5296,34 @@
         <v>2223.65047400805</v>
       </c>
       <c r="P14" t="n">
-        <v>2526.389973845558</v>
+        <v>2526.389973845557</v>
       </c>
       <c r="Q14" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R14" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S14" t="n">
-        <v>2443.531235093138</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="T14" t="n">
-        <v>2443.531235093138</v>
+        <v>2280.903805862204</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.531235093138</v>
+        <v>2026.996329008175</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.531235093138</v>
+        <v>1695.144590096539</v>
       </c>
       <c r="W14" t="n">
-        <v>2443.531235093138</v>
+        <v>1341.073764843454</v>
       </c>
       <c r="X14" t="n">
-        <v>2068.923559203068</v>
+        <v>966.4660889533836</v>
       </c>
       <c r="Y14" t="n">
-        <v>1678.330557434143</v>
+        <v>966.4660889533836</v>
       </c>
     </row>
     <row r="15">
@@ -5333,55 +5333,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C15" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D15" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E15" t="n">
-        <v>501.5285472507018</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F15" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G15" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H15" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I15" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J15" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K15" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L15" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M15" t="n">
-        <v>1316.57292581273</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N15" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O15" t="n">
-        <v>2311.816636565171</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P15" t="n">
-        <v>2648.659451850061</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q15" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R15" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S15" t="n">
         <v>2469.829437388747</v>
@@ -5402,7 +5402,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y15" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>516.9418195391017</v>
+        <v>564.5369840541872</v>
       </c>
       <c r="C16" t="n">
-        <v>516.9418195391017</v>
+        <v>564.5369840541872</v>
       </c>
       <c r="D16" t="n">
-        <v>516.9418195391017</v>
+        <v>564.5369840541872</v>
       </c>
       <c r="E16" t="n">
-        <v>516.9418195391017</v>
+        <v>416.0777677176224</v>
       </c>
       <c r="F16" t="n">
-        <v>516.9418195391017</v>
+        <v>268.4423925562037</v>
       </c>
       <c r="G16" t="n">
-        <v>347.9757675892945</v>
+        <v>99.47634060639648</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2159809393632</v>
+        <v>99.47634060639648</v>
       </c>
       <c r="I16" t="n">
-        <v>53.53110657407782</v>
+        <v>99.47634060639648</v>
       </c>
       <c r="J16" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K16" t="n">
         <v>109.4344173802943</v>
@@ -5457,31 +5457,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R16" t="n">
-        <v>551.7012029919139</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="S16" t="n">
-        <v>516.9418195391017</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="T16" t="n">
-        <v>516.9418195391017</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="U16" t="n">
-        <v>516.9418195391017</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="V16" t="n">
-        <v>516.9418195391017</v>
+        <v>564.5369840541872</v>
       </c>
       <c r="W16" t="n">
-        <v>516.9418195391017</v>
+        <v>564.5369840541872</v>
       </c>
       <c r="X16" t="n">
-        <v>516.9418195391017</v>
+        <v>564.5369840541872</v>
       </c>
       <c r="Y16" t="n">
-        <v>516.9418195391017</v>
+        <v>564.5369840541872</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.3431386700114</v>
+        <v>1736.888732319842</v>
       </c>
       <c r="C17" t="n">
-        <v>135.6511228326956</v>
+        <v>1366.196716482527</v>
       </c>
       <c r="D17" t="n">
-        <v>53.53110657407782</v>
+        <v>1005.989915720306</v>
       </c>
       <c r="E17" t="n">
-        <v>53.53110657407782</v>
+        <v>619.0020008159752</v>
       </c>
       <c r="F17" t="n">
-        <v>53.53110657407782</v>
+        <v>207.594057906338</v>
       </c>
       <c r="G17" t="n">
-        <v>53.53110657407782</v>
+        <v>207.594057906338</v>
       </c>
       <c r="H17" t="n">
-        <v>53.53110657407782</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I17" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J17" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K17" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L17" t="n">
-        <v>877.2105568248489</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M17" t="n">
-        <v>1355.324135626646</v>
+        <v>1355.324135626645</v>
       </c>
       <c r="N17" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O17" t="n">
         <v>2223.65047400805</v>
@@ -5539,28 +5539,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R17" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S17" t="n">
-        <v>2443.531235093138</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.358514782328</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U17" t="n">
-        <v>1970.451037928299</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="V17" t="n">
-        <v>1638.599299016663</v>
+        <v>2125.530869481445</v>
       </c>
       <c r="W17" t="n">
-        <v>1284.528473763578</v>
+        <v>1771.460044228359</v>
       </c>
       <c r="X17" t="n">
-        <v>1284.528473763578</v>
+        <v>1771.460044228359</v>
       </c>
       <c r="Y17" t="n">
-        <v>893.9354719946529</v>
+        <v>1736.888732319842</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C18" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D18" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E18" t="n">
-        <v>501.5285472507018</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F18" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G18" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H18" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I18" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J18" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K18" t="n">
-        <v>239.79187147526</v>
+        <v>239.7918714752595</v>
       </c>
       <c r="L18" t="n">
-        <v>645.0924182088991</v>
+        <v>645.0924182088986</v>
       </c>
       <c r="M18" t="n">
-        <v>1170.859233530006</v>
+        <v>1170.859233530005</v>
       </c>
       <c r="N18" t="n">
         <v>1725.940263988108</v>
@@ -5612,19 +5612,19 @@
         <v>2166.102944282447</v>
       </c>
       <c r="P18" t="n">
-        <v>2502.945759567338</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q18" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R18" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S18" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T18" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U18" t="n">
         <v>2045.543118600484</v>
@@ -5639,7 +5639,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.53110657407782</v>
+        <v>210.7197000864045</v>
       </c>
       <c r="C19" t="n">
-        <v>53.53110657407782</v>
+        <v>210.7197000864045</v>
       </c>
       <c r="D19" t="n">
-        <v>53.53110657407782</v>
+        <v>201.9903229106426</v>
       </c>
       <c r="E19" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F19" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G19" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H19" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I19" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J19" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K19" t="n">
         <v>109.4344173802943</v>
@@ -5700,25 +5700,25 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8853266532925</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T19" t="n">
-        <v>342.4390088515643</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="U19" t="n">
-        <v>53.53110657407782</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="V19" t="n">
-        <v>53.53110657407782</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="W19" t="n">
-        <v>53.53110657407782</v>
+        <v>210.7197000864045</v>
       </c>
       <c r="X19" t="n">
-        <v>53.53110657407782</v>
+        <v>210.7197000864045</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.53110657407782</v>
+        <v>210.7197000864045</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2111.279211962652</v>
+        <v>1341.073764843454</v>
       </c>
       <c r="C20" t="n">
-        <v>2111.279211962652</v>
+        <v>1218.390212912984</v>
       </c>
       <c r="D20" t="n">
-        <v>1751.072411200432</v>
+        <v>858.1834121507636</v>
       </c>
       <c r="E20" t="n">
-        <v>1364.084496296101</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="F20" t="n">
-        <v>952.6765533864634</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G20" t="n">
-        <v>535.0121627141084</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H20" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I20" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J20" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K20" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L20" t="n">
-        <v>877.2105568248481</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M20" t="n">
         <v>1355.324135626645</v>
@@ -5767,7 +5767,7 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O20" t="n">
-        <v>2223.65047400805</v>
+        <v>2223.650474008049</v>
       </c>
       <c r="P20" t="n">
         <v>2526.389973845557</v>
@@ -5779,25 +5779,25 @@
         <v>2676.555328703891</v>
       </c>
       <c r="S20" t="n">
-        <v>2676.555328703891</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="T20" t="n">
-        <v>2676.555328703891</v>
+        <v>2280.903805862204</v>
       </c>
       <c r="U20" t="n">
-        <v>2485.886887852722</v>
+        <v>2026.996329008175</v>
       </c>
       <c r="V20" t="n">
-        <v>2485.886887852722</v>
+        <v>1695.144590096539</v>
       </c>
       <c r="W20" t="n">
-        <v>2485.886887852722</v>
+        <v>1341.073764843454</v>
       </c>
       <c r="X20" t="n">
-        <v>2111.279211962652</v>
+        <v>1341.073764843454</v>
       </c>
       <c r="Y20" t="n">
-        <v>2111.279211962652</v>
+        <v>1341.073764843454</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.4794979670861</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C21" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D21" t="n">
-        <v>659.1380762478473</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E21" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F21" t="n">
         <v>356.5727572673186</v>
@@ -5834,22 +5834,22 @@
         <v>53.53110657407781</v>
       </c>
       <c r="K21" t="n">
-        <v>239.7918714752595</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L21" t="n">
-        <v>645.0924182088986</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M21" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O21" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P21" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q21" t="n">
         <v>2676.555328703891</v>
@@ -5876,7 +5876,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.6944649328329</v>
+        <v>539.9831960030784</v>
       </c>
       <c r="C22" t="n">
-        <v>727.6944649328329</v>
+        <v>370.9563748604498</v>
       </c>
       <c r="D22" t="n">
-        <v>727.6944649328329</v>
+        <v>370.9563748604498</v>
       </c>
       <c r="E22" t="n">
-        <v>710.522428732839</v>
+        <v>222.497158523885</v>
       </c>
       <c r="F22" t="n">
-        <v>562.8870535714203</v>
+        <v>222.497158523885</v>
       </c>
       <c r="G22" t="n">
-        <v>393.9210016216131</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H22" t="n">
-        <v>236.1612149716819</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I22" t="n">
-        <v>99.47634060639648</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J22" t="n">
         <v>53.53110657407781</v>
@@ -5952,10 +5952,10 @@
         <v>727.6944649328329</v>
       </c>
       <c r="X22" t="n">
-        <v>727.6944649328329</v>
+        <v>539.9831960030784</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.6944649328329</v>
+        <v>539.9831960030784</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1071.565503798691</v>
+        <v>1539.551869958037</v>
       </c>
       <c r="C23" t="n">
-        <v>1071.565503798691</v>
+        <v>1539.551869958037</v>
       </c>
       <c r="D23" t="n">
-        <v>1071.565503798691</v>
+        <v>1179.345069195816</v>
       </c>
       <c r="E23" t="n">
-        <v>684.5775888943599</v>
+        <v>792.3571542914855</v>
       </c>
       <c r="F23" t="n">
-        <v>684.5775888943599</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="G23" t="n">
-        <v>535.0121627141084</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H23" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I23" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J23" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733074</v>
       </c>
       <c r="K23" t="n">
         <v>461.1915665632928</v>
@@ -6013,28 +6013,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R23" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S23" t="n">
-        <v>2443.531235093138</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.358514782327</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.358514782327</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.358514782327</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.358514782327</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="X23" t="n">
-        <v>1849.750838892257</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="Y23" t="n">
-        <v>1459.157837123332</v>
+        <v>1812.882129770127</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C24" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D24" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E24" t="n">
-        <v>501.5285472507018</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F24" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G24" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H24" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I24" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J24" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K24" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L24" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M24" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N24" t="n">
-        <v>1795.848577958314</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O24" t="n">
-        <v>2236.011258252653</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P24" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q24" t="n">
         <v>2676.555328703891</v>
@@ -6113,7 +6113,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y24" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2173.838288146864</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C25" t="n">
-        <v>2173.838288146864</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D25" t="n">
-        <v>2173.838288146864</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E25" t="n">
-        <v>2173.838288146864</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F25" t="n">
-        <v>2173.838288146864</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G25" t="n">
-        <v>2173.838288146864</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H25" t="n">
-        <v>2173.838288146864</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I25" t="n">
-        <v>2037.153413781578</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K25" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L25" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M25" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N25" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O25" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S25" t="n">
-        <v>2462.74619042435</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T25" t="n">
-        <v>2462.74619042435</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.838288146864</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="V25" t="n">
-        <v>2173.838288146864</v>
+        <v>183.2952989513676</v>
       </c>
       <c r="W25" t="n">
-        <v>2173.838288146864</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X25" t="n">
-        <v>2173.838288146864</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y25" t="n">
-        <v>2173.838288146864</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1333.408020528077</v>
+        <v>1613.502256755607</v>
       </c>
       <c r="C26" t="n">
-        <v>1333.408020528077</v>
+        <v>1242.810240918291</v>
       </c>
       <c r="D26" t="n">
-        <v>1333.408020528077</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E26" t="n">
-        <v>946.4201056237457</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F26" t="n">
-        <v>535.0121627141084</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G26" t="n">
-        <v>535.0121627141084</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H26" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I26" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J26" t="n">
         <v>167.7421803733073</v>
       </c>
       <c r="K26" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L26" t="n">
-        <v>877.2105568248481</v>
+        <v>877.2105568248489</v>
       </c>
       <c r="M26" t="n">
-        <v>1355.324135626645</v>
+        <v>1355.324135626646</v>
       </c>
       <c r="N26" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O26" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P26" t="n">
-        <v>2526.389973845558</v>
+        <v>2526.389973845557</v>
       </c>
       <c r="Q26" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R26" t="n">
-        <v>2620.010037624015</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S26" t="n">
-        <v>2443.531235093138</v>
+        <v>2597.875654725412</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.358514782328</v>
+        <v>2378.702934414602</v>
       </c>
       <c r="U26" t="n">
-        <v>1970.451037928299</v>
+        <v>2378.702934414602</v>
       </c>
       <c r="V26" t="n">
-        <v>1687.478845781162</v>
+        <v>2378.702934414602</v>
       </c>
       <c r="W26" t="n">
-        <v>1333.408020528077</v>
+        <v>2378.702934414602</v>
       </c>
       <c r="X26" t="n">
-        <v>1333.408020528077</v>
+        <v>2004.095258524532</v>
       </c>
       <c r="Y26" t="n">
-        <v>1333.408020528077</v>
+        <v>1613.502256755607</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.4794979670866</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C27" t="n">
-        <v>806.7263828889038</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D27" t="n">
-        <v>659.1380762478477</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E27" t="n">
-        <v>501.5285472507024</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F27" t="n">
-        <v>356.5727572673193</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G27" t="n">
-        <v>219.9143827707593</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H27" t="n">
-        <v>115.4714096068667</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I27" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J27" t="n">
         <v>129.3364848865957</v>
@@ -6314,37 +6314,37 @@
         <v>790.8061104916227</v>
       </c>
       <c r="M27" t="n">
-        <v>1170.859233530006</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.940263988108</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O27" t="n">
-        <v>2166.102944282447</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P27" t="n">
-        <v>2502.945759567338</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q27" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R27" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S27" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T27" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U27" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V27" t="n">
-        <v>1811.291875126086</v>
+        <v>1811.291875126085</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X27" t="n">
         <v>1352.250484864996</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.53110657407782</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="C28" t="n">
-        <v>53.53110657407782</v>
+        <v>122.3927597930848</v>
       </c>
       <c r="D28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K28" t="n">
         <v>109.4344173802943</v>
@@ -6408,28 +6408,28 @@
         <v>727.6944649328329</v>
       </c>
       <c r="R28" t="n">
-        <v>727.6944649328329</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8853266532925</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="T28" t="n">
-        <v>285.8929627032434</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="U28" t="n">
-        <v>53.53110657407782</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="V28" t="n">
-        <v>53.53110657407782</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="W28" t="n">
-        <v>53.53110657407782</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="X28" t="n">
-        <v>53.53110657407782</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.53110657407782</v>
+        <v>291.4195809357134</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2481.971227799968</v>
+        <v>1290.800243308001</v>
       </c>
       <c r="C29" t="n">
-        <v>2111.279211962652</v>
+        <v>1290.800243308001</v>
       </c>
       <c r="D29" t="n">
-        <v>1751.072411200432</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="E29" t="n">
-        <v>1364.084496296101</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F29" t="n">
-        <v>952.6765533864634</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G29" t="n">
-        <v>535.0121627141084</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H29" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I29" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J29" t="n">
-        <v>167.7421803733076</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K29" t="n">
-        <v>461.191566563293</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L29" t="n">
-        <v>877.2105568248484</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M29" t="n">
         <v>1355.324135626645</v>
@@ -6487,28 +6487,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R29" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S29" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T29" t="n">
-        <v>2676.555328703891</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U29" t="n">
-        <v>2676.555328703891</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="V29" t="n">
-        <v>2676.555328703891</v>
+        <v>2068.985578401568</v>
       </c>
       <c r="W29" t="n">
-        <v>2676.555328703891</v>
+        <v>2068.985578401568</v>
       </c>
       <c r="X29" t="n">
-        <v>2676.555328703891</v>
+        <v>2068.985578401568</v>
       </c>
       <c r="Y29" t="n">
-        <v>2676.555328703891</v>
+        <v>1678.392576632643</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C30" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D30" t="n">
         <v>659.1380762478473</v>
       </c>
       <c r="E30" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F30" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G30" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H30" t="n">
         <v>115.4714096068661</v>
@@ -6560,7 +6560,7 @@
         <v>2236.011258252653</v>
       </c>
       <c r="P30" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q30" t="n">
         <v>2676.555328703891</v>
@@ -6569,19 +6569,19 @@
         <v>2626.774708455267</v>
       </c>
       <c r="S30" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T30" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U30" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V30" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W30" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X30" t="n">
         <v>1352.250484864996</v>
@@ -6651,16 +6651,16 @@
         <v>727.6944649328329</v>
       </c>
       <c r="T31" t="n">
-        <v>727.6944649328329</v>
+        <v>631.4214097479435</v>
       </c>
       <c r="U31" t="n">
-        <v>727.6944649328329</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="V31" t="n">
-        <v>570.9381134626888</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9557125663094</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X31" t="n">
         <v>53.53110657407781</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1269.591355060401</v>
+        <v>1027.658337547095</v>
       </c>
       <c r="C32" t="n">
-        <v>1269.591355060401</v>
+        <v>1027.658337547095</v>
       </c>
       <c r="D32" t="n">
-        <v>1269.591355060401</v>
+        <v>792.3571542914855</v>
       </c>
       <c r="E32" t="n">
-        <v>882.6034401560701</v>
+        <v>792.3571542914855</v>
       </c>
       <c r="F32" t="n">
-        <v>471.1954972464328</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="G32" t="n">
-        <v>53.5311065740778</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H32" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I32" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J32" t="n">
-        <v>167.7421803733074</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K32" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L32" t="n">
-        <v>877.2105568248476</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M32" t="n">
-        <v>1355.324135626644</v>
+        <v>1355.324135626645</v>
       </c>
       <c r="N32" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O32" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P32" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q32" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R32" t="n">
-        <v>2676.55532870389</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S32" t="n">
-        <v>2676.291842898066</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T32" t="n">
-        <v>2676.291842898066</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U32" t="n">
-        <v>2422.384366044038</v>
+        <v>2146.929840459175</v>
       </c>
       <c r="V32" t="n">
-        <v>2422.384366044038</v>
+        <v>2146.929840459175</v>
       </c>
       <c r="W32" t="n">
-        <v>2422.384366044038</v>
+        <v>1792.85901520609</v>
       </c>
       <c r="X32" t="n">
-        <v>2047.776690153968</v>
+        <v>1418.25133931602</v>
       </c>
       <c r="Y32" t="n">
-        <v>1657.183688385042</v>
+        <v>1027.658337547095</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C33" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D33" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E33" t="n">
-        <v>501.5285472507018</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F33" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G33" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H33" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I33" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J33" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K33" t="n">
         <v>309.7001854454657</v>
@@ -6800,7 +6800,7 @@
         <v>2572.854073537543</v>
       </c>
       <c r="Q33" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R33" t="n">
         <v>2626.774708455267</v>
@@ -6824,7 +6824,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.5311065740778</v>
+        <v>527.9530895280564</v>
       </c>
       <c r="C34" t="n">
-        <v>53.5311065740778</v>
+        <v>358.9262683854278</v>
       </c>
       <c r="D34" t="n">
-        <v>53.5311065740778</v>
+        <v>358.9262683854278</v>
       </c>
       <c r="E34" t="n">
-        <v>53.5311065740778</v>
+        <v>358.9262683854278</v>
       </c>
       <c r="F34" t="n">
-        <v>53.5311065740778</v>
+        <v>211.290893224009</v>
       </c>
       <c r="G34" t="n">
-        <v>53.5311065740778</v>
+        <v>211.290893224009</v>
       </c>
       <c r="H34" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I34" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J34" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K34" t="n">
-        <v>109.4344173802942</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L34" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M34" t="n">
         <v>381.630737830651</v>
@@ -6885,25 +6885,25 @@
         <v>580.4019818320927</v>
       </c>
       <c r="S34" t="n">
-        <v>366.5928435525523</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="T34" t="n">
-        <v>366.5928435525523</v>
+        <v>527.9530895280564</v>
       </c>
       <c r="U34" t="n">
-        <v>366.5928435525523</v>
+        <v>527.9530895280564</v>
       </c>
       <c r="V34" t="n">
-        <v>366.5928435525523</v>
+        <v>527.9530895280564</v>
       </c>
       <c r="W34" t="n">
-        <v>77.61044265617295</v>
+        <v>527.9530895280564</v>
       </c>
       <c r="X34" t="n">
-        <v>77.61044265617295</v>
+        <v>527.9530895280564</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.5311065740778</v>
+        <v>527.9530895280564</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1815.07810154754</v>
+        <v>1582.825780987582</v>
       </c>
       <c r="C35" t="n">
-        <v>1444.386085710224</v>
+        <v>1212.133765150267</v>
       </c>
       <c r="D35" t="n">
-        <v>1084.179284948003</v>
+        <v>851.9269643880459</v>
       </c>
       <c r="E35" t="n">
-        <v>697.1913700436726</v>
+        <v>464.9390494837151</v>
       </c>
       <c r="F35" t="n">
-        <v>625.258448578693</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G35" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H35" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I35" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J35" t="n">
-        <v>167.7421803733074</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K35" t="n">
-        <v>461.1915665632928</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L35" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248484</v>
       </c>
       <c r="M35" t="n">
         <v>1355.324135626645</v>
@@ -6955,34 +6955,34 @@
         <v>2223.65047400805</v>
       </c>
       <c r="P35" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q35" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R35" t="n">
-        <v>2620.010037624014</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S35" t="n">
-        <v>2620.010037624014</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="T35" t="n">
-        <v>2400.837317313204</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="U35" t="n">
-        <v>2146.929840459175</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="V35" t="n">
-        <v>1815.07810154754</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="W35" t="n">
-        <v>1815.07810154754</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="X35" t="n">
-        <v>1815.07810154754</v>
+        <v>2361.011116081149</v>
       </c>
       <c r="Y35" t="n">
-        <v>1815.07810154754</v>
+        <v>1970.418114312224</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.4794979670864</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C36" t="n">
-        <v>806.7263828889036</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D36" t="n">
-        <v>659.1380762478475</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E36" t="n">
-        <v>501.5285472507022</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F36" t="n">
-        <v>356.572757267319</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G36" t="n">
         <v>219.9143827707587</v>
@@ -7013,28 +7013,28 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I36" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J36" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K36" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L36" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M36" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N36" t="n">
-        <v>1795.848577958314</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O36" t="n">
-        <v>2236.011258252653</v>
+        <v>2311.816636565171</v>
       </c>
       <c r="P36" t="n">
-        <v>2572.854073537543</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q36" t="n">
         <v>2676.555328703891</v>
@@ -7052,7 +7052,7 @@
         <v>2045.543118600485</v>
       </c>
       <c r="V36" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W36" t="n">
         <v>1558.777383459419</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2448.997235090108</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C37" t="n">
-        <v>2448.997235090108</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D37" t="n">
-        <v>2298.486561843119</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E37" t="n">
-        <v>2150.027345506554</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F37" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G37" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H37" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I37" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J37" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K37" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L37" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M37" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N37" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O37" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U37" t="n">
-        <v>2676.555328703891</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="V37" t="n">
-        <v>2676.555328703891</v>
+        <v>342.5135074704572</v>
       </c>
       <c r="W37" t="n">
-        <v>2676.555328703891</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="X37" t="n">
-        <v>2676.555328703891</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y37" t="n">
-        <v>2630.899953767567</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1560.284494236094</v>
+        <v>1613.502256755607</v>
       </c>
       <c r="C38" t="n">
-        <v>1189.592478398778</v>
+        <v>1242.810240918291</v>
       </c>
       <c r="D38" t="n">
-        <v>829.3856776365578</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E38" t="n">
-        <v>442.397762732227</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F38" t="n">
-        <v>442.397762732227</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G38" t="n">
-        <v>380.9492113818483</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H38" t="n">
         <v>53.53110657407782</v>
@@ -7174,13 +7174,13 @@
         <v>53.53110657407782</v>
       </c>
       <c r="J38" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K38" t="n">
-        <v>461.1915665632931</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L38" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248487</v>
       </c>
       <c r="M38" t="n">
         <v>1355.324135626645</v>
@@ -7204,22 +7204,22 @@
         <v>2676.555328703891</v>
       </c>
       <c r="T38" t="n">
-        <v>2676.555328703891</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="U38" t="n">
-        <v>2676.555328703891</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="V38" t="n">
-        <v>2676.555328703891</v>
+        <v>2125.530869481445</v>
       </c>
       <c r="W38" t="n">
-        <v>2322.484503450806</v>
+        <v>2125.530869481445</v>
       </c>
       <c r="X38" t="n">
-        <v>1947.876827560736</v>
+        <v>1750.923193591375</v>
       </c>
       <c r="Y38" t="n">
-        <v>1947.876827560736</v>
+        <v>1613.502256755607</v>
       </c>
     </row>
     <row r="39">
@@ -7265,13 +7265,13 @@
         <v>1240.767547500212</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O39" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252654</v>
       </c>
       <c r="P39" t="n">
-        <v>2502.945759567338</v>
+        <v>2572.854073537544</v>
       </c>
       <c r="Q39" t="n">
         <v>2676.555328703891</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.53110657407782</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="C40" t="n">
-        <v>53.53110657407782</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="D40" t="n">
-        <v>53.53110657407782</v>
+        <v>288.2013907894644</v>
       </c>
       <c r="E40" t="n">
-        <v>53.53110657407782</v>
+        <v>139.7421744528995</v>
       </c>
       <c r="F40" t="n">
-        <v>53.53110657407782</v>
+        <v>139.7421744528995</v>
       </c>
       <c r="G40" t="n">
-        <v>53.53110657407782</v>
+        <v>139.7421744528995</v>
       </c>
       <c r="H40" t="n">
         <v>53.53110657407782</v>
@@ -7359,25 +7359,25 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S40" t="n">
-        <v>570.4313728016134</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T40" t="n">
-        <v>342.4390088515643</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U40" t="n">
-        <v>53.53110657407782</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V40" t="n">
-        <v>53.53110657407782</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W40" t="n">
-        <v>53.53110657407782</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="X40" t="n">
-        <v>53.53110657407782</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.53110657407782</v>
+        <v>438.7120640364536</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1341.073764843454</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="C41" t="n">
-        <v>1341.073764843454</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="D41" t="n">
-        <v>980.8669640812336</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="E41" t="n">
-        <v>980.8669640812336</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="F41" t="n">
-        <v>569.4590211715963</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="G41" t="n">
-        <v>380.9492113818483</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="H41" t="n">
-        <v>53.53110657407782</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I41" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J41" t="n">
-        <v>167.7421803733076</v>
+        <v>167.7421803733077</v>
       </c>
       <c r="K41" t="n">
-        <v>461.1915665632931</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L41" t="n">
         <v>877.2105568248485</v>
@@ -7435,28 +7435,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R41" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S41" t="n">
-        <v>2500.076526173014</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T41" t="n">
-        <v>2280.903805862204</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="U41" t="n">
-        <v>2026.996329008175</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V41" t="n">
-        <v>1695.14459009654</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="W41" t="n">
-        <v>1341.073764843454</v>
+        <v>1284.528473763578</v>
       </c>
       <c r="X41" t="n">
-        <v>1341.073764843454</v>
+        <v>925.6051644830335</v>
       </c>
       <c r="Y41" t="n">
-        <v>1341.073764843454</v>
+        <v>535.0121627141084</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C42" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D42" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E42" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F42" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G42" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H42" t="n">
         <v>115.4714096068661</v>
@@ -7490,52 +7490,52 @@
         <v>53.53110657407782</v>
       </c>
       <c r="J42" t="n">
-        <v>53.53110657407782</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K42" t="n">
-        <v>309.7001854454658</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L42" t="n">
-        <v>715.0007321791048</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M42" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.940263988108</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O42" t="n">
-        <v>2166.102944282447</v>
+        <v>2311.816636565171</v>
       </c>
       <c r="P42" t="n">
-        <v>2502.945759567337</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q42" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R42" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S42" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T42" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V42" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W42" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X42" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.53110657407782</v>
+        <v>373.0686009636957</v>
       </c>
       <c r="C43" t="n">
-        <v>53.53110657407782</v>
+        <v>204.0417798210671</v>
       </c>
       <c r="D43" t="n">
         <v>53.53110657407782</v>
@@ -7599,22 +7599,22 @@
         <v>727.6944649328329</v>
       </c>
       <c r="T43" t="n">
-        <v>631.4214097479436</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U43" t="n">
-        <v>342.5135074704572</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V43" t="n">
-        <v>342.5135074704572</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W43" t="n">
-        <v>53.53110657407782</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X43" t="n">
-        <v>53.53110657407782</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.53110657407782</v>
+        <v>554.9713196411541</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1736.725287685141</v>
+        <v>1854.80935996502</v>
       </c>
       <c r="C44" t="n">
-        <v>1736.725287685141</v>
+        <v>1484.117344127704</v>
       </c>
       <c r="D44" t="n">
-        <v>1376.518486922921</v>
+        <v>1484.117344127704</v>
       </c>
       <c r="E44" t="n">
-        <v>1364.084496296101</v>
+        <v>1097.129429223373</v>
       </c>
       <c r="F44" t="n">
-        <v>952.6765533864634</v>
+        <v>685.7214863137356</v>
       </c>
       <c r="G44" t="n">
-        <v>535.0121627141084</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="H44" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I44" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J44" t="n">
-        <v>167.7421803733072</v>
+        <v>167.7421803733077</v>
       </c>
       <c r="K44" t="n">
-        <v>461.1915665632926</v>
+        <v>461.1915665632933</v>
       </c>
       <c r="L44" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248487</v>
       </c>
       <c r="M44" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N44" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O44" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P44" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q44" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R44" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S44" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="T44" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="U44" t="n">
-        <v>2422.647851849862</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="V44" t="n">
-        <v>2090.796112938227</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="W44" t="n">
-        <v>1736.725287685141</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="X44" t="n">
-        <v>1736.725287685141</v>
+        <v>2245.402361733945</v>
       </c>
       <c r="Y44" t="n">
-        <v>1736.725287685141</v>
+        <v>1854.80935996502</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.53110657407782</v>
       </c>
       <c r="J45" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K45" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454658</v>
       </c>
       <c r="L45" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791048</v>
       </c>
       <c r="M45" t="n">
-        <v>1316.57292581273</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N45" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O45" t="n">
-        <v>2311.816636565171</v>
+        <v>2236.011258252654</v>
       </c>
       <c r="P45" t="n">
-        <v>2648.659451850061</v>
+        <v>2572.854073537544</v>
       </c>
       <c r="Q45" t="n">
         <v>2676.555328703891</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.9936860926541</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C46" t="n">
-        <v>529.9668649500255</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D46" t="n">
-        <v>379.4561917030363</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E46" t="n">
-        <v>347.9757675892945</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F46" t="n">
-        <v>347.9757675892945</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G46" t="n">
-        <v>347.9757675892945</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2159809393632</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I46" t="n">
         <v>53.53110657407782</v>
@@ -7827,31 +7827,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q46" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R46" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S46" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T46" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U46" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V46" t="n">
-        <v>698.9936860926541</v>
+        <v>570.9381134626888</v>
       </c>
       <c r="W46" t="n">
-        <v>698.9936860926541</v>
+        <v>281.9557125663094</v>
       </c>
       <c r="X46" t="n">
-        <v>698.9936860926541</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y46" t="n">
-        <v>698.9936860926541</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N2" t="n">
-        <v>454.8408013884637</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O2" t="n">
         <v>396.0321885132552</v>
@@ -8057,28 +8057,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>143.2439403504903</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155704</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>253.2939538214777</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8303,10 +8303,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>412.8644904155704</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>258.5531625267516</v>
+        <v>258.5531625267515</v>
       </c>
       <c r="O6" t="n">
         <v>139.0313383333333</v>
@@ -8534,13 +8534,13 @@
         <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>206.5344255155919</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N9" t="n">
         <v>402.3419766228525</v>
@@ -8549,10 +8549,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,19 +8768,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>109.8042458063405</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>110.7022847320476</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>454.7641991243835</v>
+        <v>454.7641991243834</v>
       </c>
       <c r="N12" t="n">
-        <v>133.4980982805503</v>
+        <v>319.1700909892689</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.29483148495586</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9245,7 +9245,7 @@
         <v>54.56358754946164</v>
       </c>
       <c r="K18" t="n">
-        <v>204.4293879373185</v>
+        <v>204.429387937318</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9482,7 +9482,7 @@
         <v>54.56358754946164</v>
       </c>
       <c r="K21" t="n">
-        <v>204.429387937318</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9734,10 +9734,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>184.015731625208</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9962,7 +9962,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>337.147718539673</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
         <v>498.5160693172957</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>71.29483148495635</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>54.56358754946164</v>
+        <v>54.56358754946163</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10208,10 +10208,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>331.2012793855346</v>
+        <v>260.586820829771</v>
       </c>
       <c r="Q30" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>54.56358754946164</v>
+        <v>54.56358754946163</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>147.8659206895198</v>
+        <v>71.29483148495586</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>54.56358754946164</v>
+        <v>54.56358754946163</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10913,7 +10913,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>427.9016107615324</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895194</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789569</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>54.56358754946163</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11150,13 +11150,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>427.9016107615317</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>331.2012793855346</v>
+        <v>184.0157316252075</v>
       </c>
       <c r="Q42" t="n">
         <v>218.4803792452831</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946162</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.29483148495586</v>
+        <v>147.8659206895193</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164.2405094225432</v>
+        <v>233.3186421751691</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
@@ -22570,7 +22570,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22606,7 +22606,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>114.6868463558341</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
@@ -22643,7 +22643,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>51.73378021726776</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -22676,22 +22676,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>203.671151418586</v>
@@ -22725,13 +22725,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.7486738677682</v>
+        <v>39.83554722615986</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497925</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -22837,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>54.8079067727507</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>83.32055315287488</v>
       </c>
       <c r="V5" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W5" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>84.77749677868428</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
@@ -22919,19 +22919,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>27.7634654568603</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -23029,13 +23029,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F8" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
@@ -23077,19 +23077,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>76.24630965895204</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>96.57779178956685</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.2918504796943</v>
+        <v>145.0978942447525</v>
       </c>
     </row>
     <row r="9">
@@ -23105,19 +23105,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>89.73634113625708</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
         <v>86.50354346547167</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>50.24743635262982</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23229,13 +23229,13 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.35573549950897</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>13.62442118705684</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>3.244058262712599</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
@@ -23272,13 +23272,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>414.5805343701932</v>
+        <v>61.21985987830743</v>
       </c>
       <c r="H11" t="n">
         <v>335.3354348149113</v>
       </c>
       <c r="I11" t="n">
-        <v>194.6520159438067</v>
+        <v>194.6520159438068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>124.6246575341331</v>
+        <v>124.6246575341332</v>
       </c>
       <c r="S11" t="n">
-        <v>199.6159120445202</v>
+        <v>199.6159120445203</v>
       </c>
       <c r="T11" t="n">
-        <v>221.7646708466713</v>
+        <v>221.7646708466714</v>
       </c>
       <c r="U11" t="n">
         <v>251.4558250938534</v>
@@ -23320,13 +23320,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>56.79095954738477</v>
+        <v>59.62151703871649</v>
       </c>
       <c r="Y11" t="n">
-        <v>33.32639725934973</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23354,10 +23354,10 @@
         <v>135.87648366662</v>
       </c>
       <c r="H12" t="n">
-        <v>23.42730724042117</v>
+        <v>109.0454460589492</v>
       </c>
       <c r="I12" t="n">
-        <v>81.45177448909044</v>
+        <v>81.45177448909047</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>85.58506362992529</v>
+        <v>85.58506362992532</v>
       </c>
       <c r="S12" t="n">
         <v>166.2362328081954</v>
       </c>
       <c r="T12" t="n">
-        <v>197.791120992435</v>
+        <v>112.1729821739079</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23433,16 +23433,16 @@
         <v>167.7665783291587</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>160.5403959386579</v>
       </c>
       <c r="I13" t="n">
-        <v>124.9335364826989</v>
+        <v>150.059282543399</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>80.14199544065863</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4828144438976594</v>
+        <v>0.4828144438977109</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.46023946362425</v>
+        <v>69.46023946362429</v>
       </c>
       <c r="R13" t="n">
         <v>167.8601437398225</v>
@@ -23472,10 +23472,10 @@
         <v>227.8068752419967</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0455607219215</v>
+        <v>273.1737743488444</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>32.30404166313492</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.18953170799892</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -23661,22 +23661,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J16" t="n">
-        <v>45.48578169199547</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>177.259257278461</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T16" t="n">
         <v>225.7124403105487</v>
@@ -23712,7 +23712,7 @@
         <v>286.0188232547115</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>237.2300032668127</v>
       </c>
       <c r="W16" t="n">
         <v>286.0925768874155</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>275.3059166585668</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.4877467656314</v>
@@ -23752,7 +23752,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I17" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>352.4614729618038</v>
       </c>
     </row>
     <row r="18">
@@ -23895,10 +23895,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>140.3634831105151</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>146.1590214098045</v>
@@ -23940,19 +23940,19 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T19" t="n">
-        <v>55.98058568683771</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23971,7 +23971,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>245.5283792677778</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S20" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>62.60664564283142</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -24129,28 +24129,28 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9743083352052</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>40.30620369185229</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>113.1194527774263</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4179748471824</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24271,7 +24271,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24384,10 +24384,10 @@
         <v>156.1821887834319</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J25" t="n">
-        <v>11.0719526899174</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T25" t="n">
         <v>225.7124403105487</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>157.6260264338987</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24445,25 +24445,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>152.8009754359517</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V26" t="n">
-        <v>48.39075129685364</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>80.83252982770247</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
@@ -24648,22 +24648,22 @@
         <v>28.413771051777</v>
       </c>
       <c r="R28" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U28" t="n">
-        <v>55.98058568683768</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.0781500965116</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>335.6079333894739</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T29" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
@@ -24748,7 +24748,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24861,7 +24861,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J31" t="n">
-        <v>45.48578169199548</v>
+        <v>45.48578169199547</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.413771051777</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R31" t="n">
         <v>145.8195582697328</v>
@@ -24891,19 +24891,19 @@
         <v>211.671046896745</v>
       </c>
       <c r="T31" t="n">
-        <v>225.7124403105487</v>
+        <v>130.4021156775081</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>97.74756311149642</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>123.656561331545</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H32" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>152.5223218189376</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4531635578022</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T32" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -25086,19 +25086,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>135.3180256216325</v>
       </c>
       <c r="J34" t="n">
-        <v>45.48578169199548</v>
+        <v>45.48578169199547</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.413771051777</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T34" t="n">
-        <v>225.7124403105487</v>
+        <v>173.7880369295527</v>
       </c>
       <c r="U34" t="n">
         <v>286.0188232547115</v>
@@ -25137,13 +25137,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.910131146494</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>336.0802712302111</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H35" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>114.4526668037321</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>167.2763914303091</v>
@@ -25335,7 +25335,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J37" t="n">
-        <v>45.48578169199548</v>
+        <v>45.48578169199547</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.413771051777</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R37" t="n">
         <v>145.8195582697328</v>
@@ -25368,19 +25368,19 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>157.6260264338987</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>173.5498526808076</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>352.6536809287564</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I38" t="n">
         <v>152.5223218189376</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.97983816907738</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S38" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T38" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>250.6403442838254</v>
       </c>
     </row>
     <row r="39">
@@ -25554,10 +25554,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
@@ -25566,13 +25566,13 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1821887834319</v>
+        <v>70.83323158339842</v>
       </c>
       <c r="I40" t="n">
         <v>135.3180256216325</v>
       </c>
       <c r="J40" t="n">
-        <v>45.48578169199548</v>
+        <v>45.48578169199547</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.413771051777</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R40" t="n">
         <v>145.8195582697328</v>
       </c>
       <c r="S40" t="n">
-        <v>55.98058568683768</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25633,22 +25633,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>226.8630350737809</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>15.52752294343037</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -25839,22 +25839,22 @@
         <v>211.671046896745</v>
       </c>
       <c r="T43" t="n">
-        <v>130.4021156775082</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>47.75276002900617</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>370.8083850347357</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>111.763194583063</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>152.5223218189375</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.714014505568</v>
@@ -25921,19 +25921,19 @@
         <v>216.980993107702</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>115.8090043005948</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -26040,13 +26040,13 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J46" t="n">
-        <v>45.48578169199547</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R46" t="n">
         <v>145.8195582697328</v>
@@ -26082,13 +26082,13 @@
         <v>286.0188232547115</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>97.74756311149642</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>467646.3319612471</v>
+        <v>467646.331961247</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>526769.7096817559</v>
+        <v>526769.7096817557</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>762477.5909019156</v>
+        <v>762477.5909019154</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>762477.5909019156</v>
+        <v>762477.5909019154</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>762477.5909019154</v>
+        <v>762477.5909019156</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>762477.5909019156</v>
+        <v>762477.5909019157</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147200.555265998</v>
+        <v>147200.5552659981</v>
       </c>
       <c r="C2" t="n">
         <v>147200.5552659981</v>
@@ -26325,37 +26325,37 @@
         <v>166135.1787190957</v>
       </c>
       <c r="F2" t="n">
-        <v>241621.2295377695</v>
+        <v>241621.2295377693</v>
       </c>
       <c r="G2" t="n">
         <v>241621.2295377692</v>
       </c>
       <c r="H2" t="n">
-        <v>241621.2295377692</v>
+        <v>241621.2295377693</v>
       </c>
       <c r="I2" t="n">
         <v>241621.2295377693</v>
       </c>
       <c r="J2" t="n">
+        <v>241621.2295377693</v>
+      </c>
+      <c r="K2" t="n">
         <v>241621.2295377692</v>
-      </c>
-      <c r="K2" t="n">
-        <v>241621.2295377693</v>
       </c>
       <c r="L2" t="n">
         <v>241621.2295377693</v>
       </c>
       <c r="M2" t="n">
+        <v>241621.2295377692</v>
+      </c>
+      <c r="N2" t="n">
         <v>241621.2295377693</v>
-      </c>
-      <c r="N2" t="n">
-        <v>241621.2295377692</v>
       </c>
       <c r="O2" t="n">
         <v>241621.2295377693</v>
       </c>
       <c r="P2" t="n">
-        <v>241621.2295377694</v>
+        <v>241621.2295377692</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>78414.72407550685</v>
+        <v>78414.72407550659</v>
       </c>
       <c r="F3" t="n">
-        <v>305346.0413079456</v>
+        <v>305346.0413079459</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808628</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>19706.27160131925</v>
+        <v>19706.27160131921</v>
       </c>
       <c r="N3" t="n">
-        <v>77342.5968270903</v>
+        <v>77342.59682709034</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8932.273136504818</v>
+      </c>
+      <c r="C4" t="n">
         <v>8932.27313650482</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8932.273136504818</v>
       </c>
       <c r="D4" t="n">
         <v>8932.273136504818</v>
@@ -26429,7 +26429,7 @@
         <v>9084.669051657644</v>
       </c>
       <c r="F4" t="n">
-        <v>9697.252368558971</v>
+        <v>9697.252368558973</v>
       </c>
       <c r="G4" t="n">
         <v>9697.252368558973</v>
@@ -26447,7 +26447,7 @@
         <v>9697.252368558973</v>
       </c>
       <c r="L4" t="n">
-        <v>9697.252368558971</v>
+        <v>9697.252368558973</v>
       </c>
       <c r="M4" t="n">
         <v>9697.252368558973</v>
@@ -26456,10 +26456,10 @@
         <v>9697.252368558973</v>
       </c>
       <c r="O4" t="n">
-        <v>9697.252368558971</v>
+        <v>9697.252368558973</v>
       </c>
       <c r="P4" t="n">
-        <v>9697.252368558971</v>
+        <v>9697.252368558973</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>22971.41534676549</v>
+        <v>22971.41534676547</v>
       </c>
       <c r="F5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="G5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="H5" t="n">
         <v>48096.64131659551</v>
@@ -26493,16 +26493,16 @@
         <v>48096.64131659551</v>
       </c>
       <c r="J5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="K5" t="n">
         <v>48096.64131659551</v>
       </c>
       <c r="L5" t="n">
-        <v>48096.6413165955</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="M5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.64131659552</v>
       </c>
       <c r="N5" t="n">
         <v>48096.64131659552</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3954.585724616074</v>
+        <v>-15643.71474787181</v>
       </c>
       <c r="C6" t="n">
-        <v>87964.22664312385</v>
+        <v>76275.09761986797</v>
       </c>
       <c r="D6" t="n">
-        <v>87964.22664312388</v>
+        <v>76275.09761986797</v>
       </c>
       <c r="E6" t="n">
-        <v>55664.37024516576</v>
+        <v>45089.04260150407</v>
       </c>
       <c r="F6" t="n">
-        <v>-121518.7054553306</v>
+        <v>-127653.6771684827</v>
       </c>
       <c r="G6" t="n">
-        <v>183827.3358526147</v>
+        <v>177692.364139463</v>
       </c>
       <c r="H6" t="n">
-        <v>183827.3358526148</v>
+        <v>177692.3641394631</v>
       </c>
       <c r="I6" t="n">
-        <v>183827.3358526148</v>
+        <v>177692.3641394631</v>
       </c>
       <c r="J6" t="n">
-        <v>112062.6233645285</v>
+        <v>105927.6516513769</v>
       </c>
       <c r="K6" t="n">
-        <v>183827.3358526148</v>
+        <v>177692.3641394631</v>
       </c>
       <c r="L6" t="n">
-        <v>183827.3358526149</v>
+        <v>177692.3641394631</v>
       </c>
       <c r="M6" t="n">
-        <v>164121.0642512956</v>
+        <v>157986.0925381437</v>
       </c>
       <c r="N6" t="n">
-        <v>106484.7390255245</v>
+        <v>100349.7673123728</v>
       </c>
       <c r="O6" t="n">
-        <v>183827.3358526148</v>
+        <v>177692.3641394631</v>
       </c>
       <c r="P6" t="n">
-        <v>183827.3358526149</v>
+        <v>177692.3641394631</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>68.21496961737695</v>
+        <v>68.21496961737671</v>
       </c>
       <c r="F3" t="n">
         <v>340.045886252127</v>
@@ -26779,7 +26779,7 @@
         <v>340.045886252127</v>
       </c>
       <c r="P3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521271</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>353.3606744918861</v>
+        <v>353.3606744918858</v>
       </c>
       <c r="F4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="G4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="H4" t="n">
         <v>669.1388321759727</v>
@@ -26813,16 +26813,16 @@
         <v>669.1388321759727</v>
       </c>
       <c r="J4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="K4" t="n">
         <v>669.1388321759727</v>
       </c>
       <c r="L4" t="n">
-        <v>669.1388321759725</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="M4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="N4" t="n">
         <v>669.1388321759728</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>68.21496961737695</v>
+        <v>68.21496961737671</v>
       </c>
       <c r="F3" t="n">
-        <v>271.8309166347501</v>
+        <v>271.8309166347503</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>79.07686715028352</v>
+        <v>79.07686715028331</v>
       </c>
       <c r="F4" t="n">
-        <v>315.7781576840867</v>
+        <v>315.7781576840869</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>274.2838073416027</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>79.07686715028352</v>
+        <v>79.07686715028336</v>
       </c>
       <c r="N4" t="n">
-        <v>315.7781576840867</v>
+        <v>315.7781576840869</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>79.07686715028352</v>
+        <v>79.07686715028331</v>
       </c>
       <c r="N4" t="n">
-        <v>315.7781576840867</v>
+        <v>315.7781576840869</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2742310336376961</v>
+        <v>0.2742310336376951</v>
       </c>
       <c r="H11" t="n">
-        <v>2.808468573242056</v>
+        <v>2.808468573242046</v>
       </c>
       <c r="I11" t="n">
-        <v>10.57229192431729</v>
+        <v>10.57229192431725</v>
       </c>
       <c r="J11" t="n">
-        <v>23.27501619120743</v>
+        <v>23.27501619120735</v>
       </c>
       <c r="K11" t="n">
-        <v>34.88321584509111</v>
+        <v>34.88321584509099</v>
       </c>
       <c r="L11" t="n">
-        <v>43.27571384078076</v>
+        <v>43.27571384078061</v>
       </c>
       <c r="M11" t="n">
-        <v>48.15256998523514</v>
+        <v>48.15256998523497</v>
       </c>
       <c r="N11" t="n">
-        <v>48.93172890955825</v>
+        <v>48.93172890955807</v>
       </c>
       <c r="O11" t="n">
-        <v>46.2048440688234</v>
+        <v>46.20484406882323</v>
       </c>
       <c r="P11" t="n">
-        <v>39.43476542589277</v>
+        <v>39.43476542589264</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.61386653374277</v>
+        <v>29.61386653374267</v>
       </c>
       <c r="R11" t="n">
-        <v>17.22616516674394</v>
+        <v>17.22616516674388</v>
       </c>
       <c r="S11" t="n">
-        <v>6.249039679019005</v>
+        <v>6.249039679018984</v>
       </c>
       <c r="T11" t="n">
-        <v>1.200446349749015</v>
+        <v>1.200446349749011</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02193848269101568</v>
+        <v>0.0219384826910156</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1467265384222825</v>
+        <v>0.146726538422282</v>
       </c>
       <c r="H12" t="n">
-        <v>1.417069463183623</v>
+        <v>1.417069463183618</v>
       </c>
       <c r="I12" t="n">
-        <v>5.051768976381219</v>
+        <v>5.051768976381201</v>
       </c>
       <c r="J12" t="n">
-        <v>13.8624401936596</v>
+        <v>13.86244019365955</v>
       </c>
       <c r="K12" t="n">
-        <v>23.69311826795252</v>
+        <v>23.69311826795244</v>
       </c>
       <c r="L12" t="n">
-        <v>31.8583214236627</v>
+        <v>31.85832142366259</v>
       </c>
       <c r="M12" t="n">
-        <v>37.17715844147043</v>
+        <v>37.1771584414703</v>
       </c>
       <c r="N12" t="n">
-        <v>38.16112720132864</v>
+        <v>38.1611272013285</v>
       </c>
       <c r="O12" t="n">
-        <v>34.90997600786648</v>
+        <v>34.90997600786636</v>
       </c>
       <c r="P12" t="n">
-        <v>28.01833346416376</v>
+        <v>28.01833346416366</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.72951392211452</v>
+        <v>18.72951392211445</v>
       </c>
       <c r="R12" t="n">
-        <v>9.10991613116593</v>
+        <v>9.109916131165898</v>
       </c>
       <c r="S12" t="n">
-        <v>2.725381097448974</v>
+        <v>2.725381097448964</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5914109158336736</v>
+        <v>0.5914109158336714</v>
       </c>
       <c r="U12" t="n">
-        <v>0.009653061738308063</v>
+        <v>0.009653061738308029</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1230106009493683</v>
+        <v>0.1230106009493678</v>
       </c>
       <c r="H13" t="n">
-        <v>1.093676070258929</v>
+        <v>1.093676070258926</v>
       </c>
       <c r="I13" t="n">
-        <v>3.699264254004639</v>
+        <v>3.699264254004626</v>
       </c>
       <c r="J13" t="n">
-        <v>8.696849487120335</v>
+        <v>8.696849487120305</v>
       </c>
       <c r="K13" t="n">
-        <v>14.29159527393569</v>
+        <v>14.29159527393564</v>
       </c>
       <c r="L13" t="n">
-        <v>18.28832152659972</v>
+        <v>18.28832152659965</v>
       </c>
       <c r="M13" t="n">
-        <v>19.2824708379087</v>
+        <v>19.28247083790863</v>
       </c>
       <c r="N13" t="n">
-        <v>18.8239767798247</v>
+        <v>18.82397677982464</v>
       </c>
       <c r="O13" t="n">
-        <v>17.38698930509798</v>
+        <v>17.38698930509792</v>
       </c>
       <c r="P13" t="n">
-        <v>14.87757304573086</v>
+        <v>14.87757304573081</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.30046041222392</v>
+        <v>10.30046041222388</v>
       </c>
       <c r="R13" t="n">
-        <v>5.531003929959775</v>
+        <v>5.531003929959756</v>
       </c>
       <c r="S13" t="n">
-        <v>2.143739291090353</v>
+        <v>2.143739291090346</v>
       </c>
       <c r="T13" t="n">
-        <v>0.525590749510937</v>
+        <v>0.5255907495109351</v>
       </c>
       <c r="U13" t="n">
-        <v>0.006709669142692822</v>
+        <v>0.006709669142692798</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.367018638199505</v>
+        <v>1.367018638199504</v>
       </c>
       <c r="H14" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918644</v>
       </c>
       <c r="J14" t="n">
         <v>116.0239981438853</v>
@@ -32007,22 +32007,22 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M14" t="n">
-        <v>240.036511454749</v>
+        <v>240.0365114547489</v>
       </c>
       <c r="N14" t="n">
         <v>243.9205531605333</v>
       </c>
       <c r="O14" t="n">
-        <v>230.327261576937</v>
+        <v>230.3272615769369</v>
       </c>
       <c r="P14" t="n">
-        <v>196.5789889463867</v>
+        <v>196.5789889463866</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.6226339658669</v>
+        <v>147.6226339658668</v>
       </c>
       <c r="R14" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S14" t="n">
         <v>31.15093721797124</v>
@@ -32031,7 +32031,7 @@
         <v>5.984124088718334</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1093614910559604</v>
+        <v>0.1093614910559603</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H15" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I15" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J15" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K15" t="n">
         <v>118.1082018315525</v>
@@ -32098,7 +32098,7 @@
         <v>139.6690358079727</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R15" t="n">
         <v>45.41216571495389</v>
@@ -32107,10 +32107,10 @@
         <v>13.58579554979016</v>
       </c>
       <c r="T15" t="n">
-        <v>2.948133674204761</v>
+        <v>2.94813367420476</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473497</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H16" t="n">
         <v>5.451883225484925</v>
@@ -32156,40 +32156,40 @@
         <v>18.44052117577109</v>
       </c>
       <c r="J16" t="n">
-        <v>43.35306323578347</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K16" t="n">
-        <v>71.24240043118331</v>
+        <v>71.2424004311833</v>
       </c>
       <c r="L16" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M16" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N16" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O16" t="n">
-        <v>86.67267933521431</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P16" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R16" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S16" t="n">
-        <v>10.6863600646775</v>
+        <v>10.68636006467749</v>
       </c>
       <c r="T16" t="n">
-        <v>2.620025680959011</v>
+        <v>2.62002568095901</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03344713635266827</v>
+        <v>0.03344713635266826</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.367018638199504</v>
+        <v>1.367018638199505</v>
       </c>
       <c r="H29" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918645</v>
       </c>
       <c r="J29" t="n">
         <v>116.0239981438853</v>
@@ -33192,22 +33192,22 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M29" t="n">
-        <v>240.0365114547489</v>
+        <v>240.036511454749</v>
       </c>
       <c r="N29" t="n">
         <v>243.9205531605333</v>
       </c>
       <c r="O29" t="n">
-        <v>230.3272615769369</v>
+        <v>230.327261576937</v>
       </c>
       <c r="P29" t="n">
-        <v>196.5789889463866</v>
+        <v>196.5789889463867</v>
       </c>
       <c r="Q29" t="n">
-        <v>147.6226339658668</v>
+        <v>147.6226339658669</v>
       </c>
       <c r="R29" t="n">
-        <v>85.87098453179969</v>
+        <v>85.87098453179971</v>
       </c>
       <c r="S29" t="n">
         <v>31.15093721797124</v>
@@ -33216,7 +33216,7 @@
         <v>5.984124088718334</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.1093614910559604</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.7314194534479714</v>
       </c>
       <c r="H30" t="n">
-        <v>7.063972089879092</v>
+        <v>7.063972089879093</v>
       </c>
       <c r="I30" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J30" t="n">
-        <v>69.10309845053838</v>
+        <v>69.1030984505384</v>
       </c>
       <c r="K30" t="n">
         <v>118.1082018315525</v>
@@ -33283,7 +33283,7 @@
         <v>139.6690358079727</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.36505163662174</v>
+        <v>93.36505163662176</v>
       </c>
       <c r="R30" t="n">
         <v>45.41216571495389</v>
@@ -33292,10 +33292,10 @@
         <v>13.58579554979016</v>
       </c>
       <c r="T30" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204761</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473498</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.6131974997989176</v>
       </c>
       <c r="H31" t="n">
         <v>5.451883225484925</v>
@@ -33341,40 +33341,40 @@
         <v>18.44052117577109</v>
       </c>
       <c r="J31" t="n">
-        <v>43.35306323578346</v>
+        <v>43.35306323578347</v>
       </c>
       <c r="K31" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118331</v>
       </c>
       <c r="L31" t="n">
-        <v>91.16574465192271</v>
+        <v>91.16574465192272</v>
       </c>
       <c r="M31" t="n">
-        <v>96.12149535484302</v>
+        <v>96.12149535484303</v>
       </c>
       <c r="N31" t="n">
-        <v>93.83594103741078</v>
+        <v>93.83594103741079</v>
       </c>
       <c r="O31" t="n">
-        <v>86.6726793352143</v>
+        <v>86.67267933521431</v>
       </c>
       <c r="P31" t="n">
-        <v>74.16345033931631</v>
+        <v>74.16345033931633</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.34692882407117</v>
+        <v>51.34692882407118</v>
       </c>
       <c r="R31" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S31" t="n">
-        <v>10.68636006467749</v>
+        <v>10.6863600646775</v>
       </c>
       <c r="T31" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959011</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266827</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.367018638199504</v>
+        <v>1.367018638199505</v>
       </c>
       <c r="H32" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918645</v>
       </c>
       <c r="J32" t="n">
         <v>116.0239981438853</v>
@@ -33429,22 +33429,22 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M32" t="n">
-        <v>240.0365114547489</v>
+        <v>240.036511454749</v>
       </c>
       <c r="N32" t="n">
         <v>243.9205531605333</v>
       </c>
       <c r="O32" t="n">
-        <v>230.3272615769369</v>
+        <v>230.327261576937</v>
       </c>
       <c r="P32" t="n">
-        <v>196.5789889463866</v>
+        <v>196.5789889463867</v>
       </c>
       <c r="Q32" t="n">
-        <v>147.6226339658668</v>
+        <v>147.6226339658669</v>
       </c>
       <c r="R32" t="n">
-        <v>85.87098453179969</v>
+        <v>85.87098453179971</v>
       </c>
       <c r="S32" t="n">
         <v>31.15093721797124</v>
@@ -33453,7 +33453,7 @@
         <v>5.984124088718334</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.1093614910559604</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.7314194534479714</v>
       </c>
       <c r="H33" t="n">
-        <v>7.063972089879092</v>
+        <v>7.063972089879093</v>
       </c>
       <c r="I33" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J33" t="n">
-        <v>69.10309845053838</v>
+        <v>69.1030984505384</v>
       </c>
       <c r="K33" t="n">
         <v>118.1082018315525</v>
@@ -33520,7 +33520,7 @@
         <v>139.6690358079727</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.36505163662174</v>
+        <v>93.36505163662176</v>
       </c>
       <c r="R33" t="n">
         <v>45.41216571495389</v>
@@ -33529,10 +33529,10 @@
         <v>13.58579554979016</v>
       </c>
       <c r="T33" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204761</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473498</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.6131974997989176</v>
       </c>
       <c r="H34" t="n">
         <v>5.451883225484925</v>
@@ -33578,40 +33578,40 @@
         <v>18.44052117577109</v>
       </c>
       <c r="J34" t="n">
-        <v>43.35306323578346</v>
+        <v>43.35306323578347</v>
       </c>
       <c r="K34" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118331</v>
       </c>
       <c r="L34" t="n">
-        <v>91.16574465192271</v>
+        <v>91.16574465192272</v>
       </c>
       <c r="M34" t="n">
-        <v>96.12149535484302</v>
+        <v>96.12149535484303</v>
       </c>
       <c r="N34" t="n">
-        <v>93.83594103741078</v>
+        <v>93.83594103741079</v>
       </c>
       <c r="O34" t="n">
-        <v>86.6726793352143</v>
+        <v>86.67267933521431</v>
       </c>
       <c r="P34" t="n">
-        <v>74.16345033931631</v>
+        <v>74.16345033931633</v>
       </c>
       <c r="Q34" t="n">
-        <v>51.34692882407117</v>
+        <v>51.34692882407118</v>
       </c>
       <c r="R34" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S34" t="n">
-        <v>10.68636006467749</v>
+        <v>10.6863600646775</v>
       </c>
       <c r="T34" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959011</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266827</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.367018638199504</v>
+        <v>1.367018638199505</v>
       </c>
       <c r="H35" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918645</v>
       </c>
       <c r="J35" t="n">
         <v>116.0239981438853</v>
@@ -33666,22 +33666,22 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M35" t="n">
-        <v>240.0365114547489</v>
+        <v>240.036511454749</v>
       </c>
       <c r="N35" t="n">
         <v>243.9205531605333</v>
       </c>
       <c r="O35" t="n">
-        <v>230.3272615769369</v>
+        <v>230.327261576937</v>
       </c>
       <c r="P35" t="n">
-        <v>196.5789889463866</v>
+        <v>196.5789889463867</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.6226339658668</v>
+        <v>147.6226339658669</v>
       </c>
       <c r="R35" t="n">
-        <v>85.87098453179969</v>
+        <v>85.87098453179971</v>
       </c>
       <c r="S35" t="n">
         <v>31.15093721797124</v>
@@ -33690,7 +33690,7 @@
         <v>5.984124088718334</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.1093614910559604</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.7314194534479714</v>
       </c>
       <c r="H36" t="n">
-        <v>7.063972089879092</v>
+        <v>7.063972089879093</v>
       </c>
       <c r="I36" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J36" t="n">
-        <v>69.10309845053838</v>
+        <v>69.1030984505384</v>
       </c>
       <c r="K36" t="n">
         <v>118.1082018315525</v>
@@ -33757,7 +33757,7 @@
         <v>139.6690358079727</v>
       </c>
       <c r="Q36" t="n">
-        <v>93.36505163662174</v>
+        <v>93.36505163662176</v>
       </c>
       <c r="R36" t="n">
         <v>45.41216571495389</v>
@@ -33766,10 +33766,10 @@
         <v>13.58579554979016</v>
       </c>
       <c r="T36" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204761</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473498</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.6131974997989176</v>
       </c>
       <c r="H37" t="n">
         <v>5.451883225484925</v>
@@ -33815,40 +33815,40 @@
         <v>18.44052117577109</v>
       </c>
       <c r="J37" t="n">
-        <v>43.35306323578346</v>
+        <v>43.35306323578347</v>
       </c>
       <c r="K37" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118331</v>
       </c>
       <c r="L37" t="n">
-        <v>91.16574465192271</v>
+        <v>91.16574465192272</v>
       </c>
       <c r="M37" t="n">
-        <v>96.12149535484302</v>
+        <v>96.12149535484303</v>
       </c>
       <c r="N37" t="n">
-        <v>93.83594103741078</v>
+        <v>93.83594103741079</v>
       </c>
       <c r="O37" t="n">
-        <v>86.6726793352143</v>
+        <v>86.67267933521431</v>
       </c>
       <c r="P37" t="n">
-        <v>74.16345033931631</v>
+        <v>74.16345033931633</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.34692882407117</v>
+        <v>51.34692882407118</v>
       </c>
       <c r="R37" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S37" t="n">
-        <v>10.68636006467749</v>
+        <v>10.6863600646775</v>
       </c>
       <c r="T37" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959011</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266827</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.367018638199504</v>
+        <v>1.367018638199505</v>
       </c>
       <c r="H38" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918645</v>
       </c>
       <c r="J38" t="n">
         <v>116.0239981438853</v>
@@ -33903,22 +33903,22 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M38" t="n">
-        <v>240.0365114547489</v>
+        <v>240.036511454749</v>
       </c>
       <c r="N38" t="n">
         <v>243.9205531605333</v>
       </c>
       <c r="O38" t="n">
-        <v>230.3272615769369</v>
+        <v>230.327261576937</v>
       </c>
       <c r="P38" t="n">
-        <v>196.5789889463866</v>
+        <v>196.5789889463867</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.6226339658668</v>
+        <v>147.6226339658669</v>
       </c>
       <c r="R38" t="n">
-        <v>85.87098453179969</v>
+        <v>85.87098453179971</v>
       </c>
       <c r="S38" t="n">
         <v>31.15093721797124</v>
@@ -33927,7 +33927,7 @@
         <v>5.984124088718334</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.1093614910559604</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.7314194534479714</v>
       </c>
       <c r="H39" t="n">
-        <v>7.063972089879092</v>
+        <v>7.063972089879093</v>
       </c>
       <c r="I39" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J39" t="n">
-        <v>69.10309845053838</v>
+        <v>69.1030984505384</v>
       </c>
       <c r="K39" t="n">
         <v>118.1082018315525</v>
@@ -33994,7 +33994,7 @@
         <v>139.6690358079727</v>
       </c>
       <c r="Q39" t="n">
-        <v>93.36505163662174</v>
+        <v>93.36505163662176</v>
       </c>
       <c r="R39" t="n">
         <v>45.41216571495389</v>
@@ -34003,10 +34003,10 @@
         <v>13.58579554979016</v>
       </c>
       <c r="T39" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204761</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473498</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.6131974997989176</v>
       </c>
       <c r="H40" t="n">
         <v>5.451883225484925</v>
@@ -34052,40 +34052,40 @@
         <v>18.44052117577109</v>
       </c>
       <c r="J40" t="n">
-        <v>43.35306323578346</v>
+        <v>43.35306323578347</v>
       </c>
       <c r="K40" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118331</v>
       </c>
       <c r="L40" t="n">
-        <v>91.16574465192271</v>
+        <v>91.16574465192272</v>
       </c>
       <c r="M40" t="n">
-        <v>96.12149535484302</v>
+        <v>96.12149535484303</v>
       </c>
       <c r="N40" t="n">
-        <v>93.83594103741078</v>
+        <v>93.83594103741079</v>
       </c>
       <c r="O40" t="n">
-        <v>86.6726793352143</v>
+        <v>86.67267933521431</v>
       </c>
       <c r="P40" t="n">
-        <v>74.16345033931631</v>
+        <v>74.16345033931633</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.34692882407117</v>
+        <v>51.34692882407118</v>
       </c>
       <c r="R40" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S40" t="n">
-        <v>10.68636006467749</v>
+        <v>10.6863600646775</v>
       </c>
       <c r="T40" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959011</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266827</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>13.99997962846068</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J44" t="n">
         <v>116.0239981438853</v>
@@ -34380,7 +34380,7 @@
         <v>240.036511454749</v>
       </c>
       <c r="N44" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O44" t="n">
         <v>230.327261576937</v>
@@ -34392,13 +34392,13 @@
         <v>147.6226339658669</v>
       </c>
       <c r="R44" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179972</v>
       </c>
       <c r="S44" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T44" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718336</v>
       </c>
       <c r="U44" t="n">
         <v>0.1093614910559604</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479715</v>
       </c>
       <c r="H45" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879095</v>
       </c>
       <c r="I45" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J45" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053841</v>
       </c>
       <c r="K45" t="n">
         <v>118.1082018315525</v>
@@ -34456,22 +34456,22 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M45" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N45" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O45" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P45" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662177</v>
       </c>
       <c r="R45" t="n">
-        <v>45.41216571495389</v>
+        <v>45.4121657149539</v>
       </c>
       <c r="S45" t="n">
         <v>13.58579554979016</v>
@@ -34480,7 +34480,7 @@
         <v>2.948133674204761</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989177</v>
       </c>
       <c r="H46" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484926</v>
       </c>
       <c r="I46" t="n">
         <v>18.44052117577109</v>
@@ -34529,28 +34529,28 @@
         <v>43.35306323578347</v>
       </c>
       <c r="K46" t="n">
-        <v>71.24240043118331</v>
+        <v>71.24240043118333</v>
       </c>
       <c r="L46" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192274</v>
       </c>
       <c r="M46" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484305</v>
       </c>
       <c r="N46" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741081</v>
       </c>
       <c r="O46" t="n">
-        <v>86.67267933521431</v>
+        <v>86.67267933521433</v>
       </c>
       <c r="P46" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931634</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407119</v>
       </c>
       <c r="R46" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S46" t="n">
         <v>10.6863600646775</v>
@@ -34710,7 +34710,7 @@
         <v>242.9064974359549</v>
       </c>
       <c r="N2" t="n">
-        <v>231.1630643817875</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O2" t="n">
         <v>171.6864323771106</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8.848537350490295</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>274.2838073416025</v>
@@ -34792,13 +34792,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>114.2626154881444</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>130.4949932455017</v>
+        <v>130.4949932455015</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>67.95374244162399</v>
+        <v>90.02410328955504</v>
       </c>
       <c r="N9" t="n">
         <v>274.2838073416025</v>
@@ -35269,10 +35269,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>22.61573905664501</v>
+        <v>22.61573905664493</v>
       </c>
       <c r="K11" t="n">
-        <v>157.4068401502464</v>
+        <v>157.4068401502463</v>
       </c>
       <c r="L11" t="n">
-        <v>247.7711223775116</v>
+        <v>247.7711223775115</v>
       </c>
       <c r="M11" t="n">
-        <v>291.05906742119</v>
+        <v>291.0590674211899</v>
       </c>
       <c r="N11" t="n">
-        <v>280.0947932913456</v>
+        <v>280.0947932913454</v>
       </c>
       <c r="O11" t="n">
-        <v>217.891276445934</v>
+        <v>217.8912764459338</v>
       </c>
       <c r="P11" t="n">
-        <v>148.6532510628469</v>
+        <v>148.6532510628468</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.67340919245539</v>
+        <v>33.67340919245528</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>21.33043094768475</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>164.3415617610343</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>282.4417602538829</v>
+        <v>282.4417602538828</v>
       </c>
       <c r="M12" t="n">
-        <v>353.3606744918861</v>
+        <v>353.3606744918858</v>
       </c>
       <c r="N12" t="n">
-        <v>43.60105620062899</v>
+        <v>229.2730489093475</v>
       </c>
       <c r="O12" t="n">
-        <v>305.4954497223318</v>
+        <v>305.4954497223317</v>
       </c>
       <c r="P12" t="n">
-        <v>228.5945656207264</v>
+        <v>228.5945656207263</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>55.749451755609</v>
+        <v>55.74945175560894</v>
       </c>
       <c r="M13" t="n">
-        <v>69.47987883481727</v>
+        <v>69.4798788348172</v>
       </c>
       <c r="N13" t="n">
-        <v>73.0209964444626</v>
+        <v>73.02099644446253</v>
       </c>
       <c r="O13" t="n">
-        <v>51.95519733506904</v>
+        <v>51.95519733506899</v>
       </c>
       <c r="P13" t="n">
-        <v>20.9995949444147</v>
+        <v>20.99959494441465</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L14" t="n">
-        <v>420.2212022843994</v>
+        <v>420.2212022843993</v>
       </c>
       <c r="M14" t="n">
-        <v>482.9430088907039</v>
+        <v>482.9430088907038</v>
       </c>
       <c r="N14" t="n">
-        <v>475.0836175423207</v>
+        <v>475.0836175423206</v>
       </c>
       <c r="O14" t="n">
         <v>402.0136939540475</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.57108920456355</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>258.7566453246342</v>
@@ -35734,19 +35734,19 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M15" t="n">
-        <v>531.0775912334414</v>
+        <v>531.0775912334412</v>
       </c>
       <c r="N15" t="n">
         <v>560.6879095536389</v>
       </c>
       <c r="O15" t="n">
-        <v>444.6087679740799</v>
+        <v>444.6087679740798</v>
       </c>
       <c r="P15" t="n">
-        <v>340.2452679645354</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.17765338770664</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334995</v>
       </c>
       <c r="L16" t="n">
         <v>128.626874880932</v>
@@ -35822,7 +35822,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P16" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.1421867688709</v>
+        <v>188.1421867688705</v>
       </c>
       <c r="L18" t="n">
         <v>409.3944916501405</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.1421867688705</v>
+        <v>258.7566453246342</v>
       </c>
       <c r="L21" t="n">
         <v>409.3944916501405</v>
@@ -36220,7 +36220,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K24" t="n">
         <v>258.7566453246342</v>
@@ -36454,10 +36454,10 @@
         <v>444.6087679740798</v>
       </c>
       <c r="P24" t="n">
-        <v>340.2452679645353</v>
+        <v>193.0597202042087</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M27" t="n">
-        <v>383.8920434731144</v>
+        <v>531.0775912334412</v>
       </c>
       <c r="N27" t="n">
         <v>560.6879095536389</v>
@@ -36694,7 +36694,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q27" t="n">
-        <v>175.3632011480339</v>
+        <v>28.1776533877071</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,13 +36837,13 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L29" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M29" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N29" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423207</v>
       </c>
       <c r="O29" t="n">
         <v>402.0136939540475</v>
@@ -36919,19 +36919,19 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M30" t="n">
-        <v>531.0775912334412</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N30" t="n">
         <v>560.6879095536389</v>
       </c>
       <c r="O30" t="n">
-        <v>444.6087679740798</v>
+        <v>444.6087679740799</v>
       </c>
       <c r="P30" t="n">
-        <v>340.2452679645353</v>
+        <v>269.6308094087717</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334996</v>
       </c>
       <c r="L31" t="n">
         <v>128.626874880932</v>
@@ -37007,7 +37007,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P31" t="n">
-        <v>80.28547223800015</v>
+        <v>80.28547223800017</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L32" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M32" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N32" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423207</v>
       </c>
       <c r="O32" t="n">
         <v>402.0136939540475</v>
@@ -37156,16 +37156,16 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M33" t="n">
-        <v>531.0775912334412</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N33" t="n">
         <v>560.6879095536389</v>
       </c>
       <c r="O33" t="n">
-        <v>444.6087679740798</v>
+        <v>444.6087679740799</v>
       </c>
       <c r="P33" t="n">
-        <v>340.2452679645353</v>
+        <v>340.2452679645354</v>
       </c>
       <c r="Q33" t="n">
         <v>104.7487425922701</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334996</v>
       </c>
       <c r="L34" t="n">
         <v>128.626874880932</v>
@@ -37244,7 +37244,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P34" t="n">
-        <v>80.28547223800015</v>
+        <v>80.28547223800017</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37311,13 +37311,13 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L35" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M35" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N35" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423207</v>
       </c>
       <c r="O35" t="n">
         <v>402.0136939540475</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.57108920456355</v>
       </c>
       <c r="K36" t="n">
         <v>258.7566453246342</v>
@@ -37393,19 +37393,19 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M36" t="n">
-        <v>531.0775912334412</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N36" t="n">
         <v>560.6879095536389</v>
       </c>
       <c r="O36" t="n">
-        <v>444.6087679740798</v>
+        <v>444.6087679740799</v>
       </c>
       <c r="P36" t="n">
-        <v>340.2452679645353</v>
+        <v>340.2452679645354</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.7487425922706</v>
+        <v>28.17765338770664</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334996</v>
       </c>
       <c r="L37" t="n">
         <v>128.626874880932</v>
@@ -37481,7 +37481,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P37" t="n">
-        <v>80.28547223800015</v>
+        <v>80.28547223800017</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L38" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M38" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N38" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423207</v>
       </c>
       <c r="O38" t="n">
         <v>402.0136939540475</v>
@@ -37630,19 +37630,19 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M39" t="n">
-        <v>531.0775912334412</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N39" t="n">
-        <v>490.0734509978756</v>
+        <v>560.6879095536389</v>
       </c>
       <c r="O39" t="n">
-        <v>444.6087679740798</v>
+        <v>444.6087679740799</v>
       </c>
       <c r="P39" t="n">
-        <v>340.2452679645353</v>
+        <v>340.2452679645354</v>
       </c>
       <c r="Q39" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922701</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334996</v>
       </c>
       <c r="L40" t="n">
         <v>128.626874880932</v>
@@ -37718,7 +37718,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P40" t="n">
-        <v>80.28547223800015</v>
+        <v>80.28547223800017</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>115.364721009323</v>
+        <v>115.3647210093229</v>
       </c>
       <c r="K41" t="n">
         <v>296.4135214040257</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.57108920456355</v>
       </c>
       <c r="K42" t="n">
         <v>258.7566453246342</v>
@@ -37870,13 +37870,13 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N42" t="n">
-        <v>490.0734509978749</v>
+        <v>560.6879095536389</v>
       </c>
       <c r="O42" t="n">
         <v>444.6087679740799</v>
       </c>
       <c r="P42" t="n">
-        <v>340.2452679645354</v>
+        <v>193.0597202042082</v>
       </c>
       <c r="Q42" t="n">
         <v>175.3632011480339</v>
@@ -38031,10 +38031,10 @@
         <v>475.0836175423207</v>
       </c>
       <c r="O44" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P44" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q44" t="n">
         <v>151.6821766245795</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.57108920456355</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>258.7566453246342</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L45" t="n">
         <v>409.3944916501405</v>
@@ -38107,7 +38107,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N45" t="n">
-        <v>560.6879095536389</v>
+        <v>560.687909553639</v>
       </c>
       <c r="O45" t="n">
         <v>444.6087679740799</v>
@@ -38116,7 +38116,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.17765338770664</v>
+        <v>104.7487425922701</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334998</v>
       </c>
       <c r="L46" t="n">
         <v>128.626874880932</v>
@@ -38192,7 +38192,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P46" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800018</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
